--- a/Section 10/aula-grafico-dinamico.xlsx
+++ b/Section 10/aula-grafico-dinamico.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Documents\Curso Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F44D53-5E88-43CA-9E25-75159A74F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BaseDeDados" sheetId="2" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
+    <sheet name="BaseDeDados" sheetId="2" r:id="rId2"/>
+    <sheet name="TDVendas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="18">
   <si>
     <t>Mês</t>
   </si>
@@ -67,15 +73,27 @@
   <si>
     <t>Negócios Fechados</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Valor Vendido</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,15 +131,15 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -130,11 +148,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -153,7 +176,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -190,7 +213,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -208,10 +231,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -238,16 +261,5573 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[aula-grafico-dinamico.xlsx]TDVendas!TDVendas</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vendas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4466116418188843"/>
+          <c:y val="2.7096433089748673E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendas!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anakin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TDVendas!$A$5:$A$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendas!$B$5:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>16020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15541</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11731</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18787</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18081</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8831</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21413</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10549</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17016</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4933-45EB-BB0D-7AB3EFF6E9D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendas!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barry Allen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TDVendas!$A$5:$A$42</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendas!$C$5:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>21591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12383</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18942</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6723</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8860</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13335</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18747</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18196</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16415</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9034</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4933-45EB-BB0D-7AB3EFF6E9D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1317954607"/>
+        <c:axId val="1317959887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1317954607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317959887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1317959887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317954607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59647037-CC69-41BD-A045-8BE15F7D77B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MENEZES Rafael" refreshedDate="45188.622059143519" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="272" xr:uid="{169109C8-EB9E-4119-A536-52350CBC094D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="TBVendas"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Mês" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2018" count="3">
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Logan"/>
+        <s v="Anakin"/>
+        <s v="Victor Von Doom"/>
+        <s v="Kal-El"/>
+        <s v="Barry Allen"/>
+        <s v="Wanda Maximoff"/>
+        <s v="Rachel Roth"/>
+        <s v="Padmé Amidala"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Clientes visitados" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="195"/>
+    </cacheField>
+    <cacheField name="Negócios Fechados" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Valor Vendido" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3056" maxValue="22465"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="272">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="7625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="59"/>
+    <n v="16020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="87"/>
+    <n v="77"/>
+    <n v="9859"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="52"/>
+    <n v="33"/>
+    <n v="10155"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="76"/>
+    <n v="51"/>
+    <n v="21591"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="156"/>
+    <n v="100"/>
+    <n v="11574"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="79"/>
+    <n v="40"/>
+    <n v="11242"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="95"/>
+    <n v="88"/>
+    <n v="12943"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="36"/>
+    <n v="3056"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="96"/>
+    <n v="50"/>
+    <n v="12624"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="88"/>
+    <n v="75"/>
+    <n v="22011"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="104"/>
+    <n v="71"/>
+    <n v="12652"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="154"/>
+    <n v="78"/>
+    <n v="21216"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="96"/>
+    <n v="56"/>
+    <n v="11934"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="63"/>
+    <n v="49"/>
+    <n v="16645"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="81"/>
+    <n v="45"/>
+    <n v="15306"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="49"/>
+    <n v="42"/>
+    <n v="5119"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="51"/>
+    <n v="15883"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="32"/>
+    <n v="10246"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="46"/>
+    <n v="25"/>
+    <n v="21099"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="51"/>
+    <n v="44"/>
+    <n v="14038"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="50"/>
+    <n v="38"/>
+    <n v="12475"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="77"/>
+    <n v="72"/>
+    <n v="14057"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="89"/>
+    <n v="89"/>
+    <n v="17044"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="4008"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="38"/>
+    <n v="6436"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="32"/>
+    <n v="24"/>
+    <n v="8064"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="90"/>
+    <n v="53"/>
+    <n v="14398"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="173"/>
+    <n v="93"/>
+    <n v="10816"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="105"/>
+    <n v="86"/>
+    <n v="18868"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="106"/>
+    <n v="68"/>
+    <n v="14416"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="127"/>
+    <n v="92"/>
+    <n v="12347"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="15"/>
+    <n v="4185"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="45"/>
+    <n v="21220"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="69"/>
+    <n v="36"/>
+    <n v="20414"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="150"/>
+    <n v="97"/>
+    <n v="14484"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="162"/>
+    <n v="84"/>
+    <n v="7302"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="63"/>
+    <n v="52"/>
+    <n v="22198"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="111"/>
+    <n v="65"/>
+    <n v="20710"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="139"/>
+    <n v="76"/>
+    <n v="7682"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="4255"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="72"/>
+    <n v="21707"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="135"/>
+    <n v="68"/>
+    <n v="8922"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="141"/>
+    <n v="81"/>
+    <n v="13535"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="184"/>
+    <n v="93"/>
+    <n v="12927"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="56"/>
+    <n v="28"/>
+    <n v="10496"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="102"/>
+    <n v="93"/>
+    <n v="13361"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="30"/>
+    <n v="25"/>
+    <n v="16429"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="39"/>
+    <n v="36"/>
+    <n v="7996"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="67"/>
+    <n v="9788"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="77"/>
+    <n v="62"/>
+    <n v="11003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="21"/>
+    <n v="20"/>
+    <n v="17126"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="54"/>
+    <n v="53"/>
+    <n v="15731"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="123"/>
+    <n v="68"/>
+    <n v="11359"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="64"/>
+    <n v="42"/>
+    <n v="6696"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="118"/>
+    <n v="80"/>
+    <n v="5218"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="28"/>
+    <n v="3974"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="5681"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="142"/>
+    <n v="90"/>
+    <n v="18208"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="176"/>
+    <n v="100"/>
+    <n v="5062"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="158"/>
+    <n v="84"/>
+    <n v="21601"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="47"/>
+    <n v="24"/>
+    <n v="6002"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="68"/>
+    <n v="52"/>
+    <n v="18688"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="88"/>
+    <n v="52"/>
+    <n v="20899"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="25"/>
+    <n v="5546"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="35"/>
+    <n v="15541"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="195"/>
+    <n v="99"/>
+    <n v="13501"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="28"/>
+    <n v="23"/>
+    <n v="20530"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="127"/>
+    <n v="96"/>
+    <n v="19284"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="137"/>
+    <n v="98"/>
+    <n v="9201"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="122"/>
+    <n v="90"/>
+    <n v="11181"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="125"/>
+    <n v="84"/>
+    <n v="13333"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="30"/>
+    <n v="9690"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="26"/>
+    <n v="11731"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="107"/>
+    <n v="91"/>
+    <n v="13479"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="44"/>
+    <n v="5329"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="140"/>
+    <n v="74"/>
+    <n v="11709"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="51"/>
+    <n v="30"/>
+    <n v="11224"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="65"/>
+    <n v="53"/>
+    <n v="19279"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="93"/>
+    <n v="53"/>
+    <n v="12648"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="45"/>
+    <n v="9928"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="57"/>
+    <n v="19349"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="18923"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="168"/>
+    <n v="92"/>
+    <n v="6299"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="39"/>
+    <n v="39"/>
+    <n v="10557"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="117"/>
+    <n v="60"/>
+    <n v="14870"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="52"/>
+    <n v="28"/>
+    <n v="17427"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="107"/>
+    <n v="74"/>
+    <n v="11507"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="47"/>
+    <n v="8095"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="62"/>
+    <n v="20795"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="61"/>
+    <n v="44"/>
+    <n v="12451"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="42"/>
+    <n v="28"/>
+    <n v="7217"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="95"/>
+    <n v="66"/>
+    <n v="12383"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="92"/>
+    <n v="61"/>
+    <n v="17560"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="14937"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="149"/>
+    <n v="83"/>
+    <n v="20988"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="22"/>
+    <n v="3223"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="49"/>
+    <n v="18787"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="108"/>
+    <n v="90"/>
+    <n v="7980"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="72"/>
+    <n v="60"/>
+    <n v="15608"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="53"/>
+    <n v="35"/>
+    <n v="16423"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="67"/>
+    <n v="67"/>
+    <n v="13084"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="47"/>
+    <n v="30"/>
+    <n v="20171"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="73"/>
+    <n v="65"/>
+    <n v="20751"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="4854"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="49"/>
+    <n v="46"/>
+    <n v="8269"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="154"/>
+    <n v="82"/>
+    <n v="11422"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="76"/>
+    <n v="45"/>
+    <n v="11150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="64"/>
+    <n v="47"/>
+    <n v="7287"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="111"/>
+    <n v="56"/>
+    <n v="16370"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="102"/>
+    <n v="57"/>
+    <n v="21831"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="83"/>
+    <n v="59"/>
+    <n v="8496"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="28"/>
+    <n v="6537"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="35"/>
+    <n v="10107"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55"/>
+    <n v="41"/>
+    <n v="19932"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="70"/>
+    <n v="51"/>
+    <n v="10740"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="150"/>
+    <n v="82"/>
+    <n v="6505"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="39"/>
+    <n v="26"/>
+    <n v="9597"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="58"/>
+    <n v="54"/>
+    <n v="17349"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="81"/>
+    <n v="53"/>
+    <n v="11553"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="26"/>
+    <n v="7362"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="51"/>
+    <n v="45"/>
+    <n v="8624"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="70"/>
+    <n v="47"/>
+    <n v="13490"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="97"/>
+    <n v="68"/>
+    <n v="8901"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="106"/>
+    <n v="62"/>
+    <n v="18942"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="66"/>
+    <n v="41"/>
+    <n v="6528"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="161"/>
+    <n v="84"/>
+    <n v="17364"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="147"/>
+    <n v="96"/>
+    <n v="21582"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="15"/>
+    <n v="4636"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="58"/>
+    <n v="48"/>
+    <n v="5368"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="40"/>
+    <n v="36"/>
+    <n v="8549"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="142"/>
+    <n v="81"/>
+    <n v="13610"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="94"/>
+    <n v="65"/>
+    <n v="21628"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="31"/>
+    <n v="23"/>
+    <n v="17826"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="136"/>
+    <n v="71"/>
+    <n v="19424"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="159"/>
+    <n v="88"/>
+    <n v="16101"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="7705"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="29"/>
+    <n v="17984"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="45"/>
+    <n v="13295"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="55"/>
+    <n v="35"/>
+    <n v="20474"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="78"/>
+    <n v="60"/>
+    <n v="6723"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="62"/>
+    <n v="40"/>
+    <n v="20358"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="66"/>
+    <n v="47"/>
+    <n v="5694"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="79"/>
+    <n v="68"/>
+    <n v="11976"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="22"/>
+    <n v="12"/>
+    <n v="9793"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="118"/>
+    <n v="79"/>
+    <n v="22235"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="110"/>
+    <n v="82"/>
+    <n v="15149"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="54"/>
+    <n v="9126"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="98"/>
+    <n v="77"/>
+    <n v="8860"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="32"/>
+    <n v="27"/>
+    <n v="13734"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="107"/>
+    <n v="57"/>
+    <n v="14394"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="185"/>
+    <n v="100"/>
+    <n v="14618"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="10"/>
+    <n v="3987"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="42"/>
+    <n v="22411"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="55"/>
+    <n v="21611"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="79"/>
+    <n v="40"/>
+    <n v="14770"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="69"/>
+    <n v="13335"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="133"/>
+    <n v="69"/>
+    <n v="18317"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="91"/>
+    <n v="70"/>
+    <n v="7634"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="133"/>
+    <n v="88"/>
+    <n v="12561"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="25"/>
+    <n v="6926"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="31"/>
+    <n v="15017"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="18170"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="45"/>
+    <n v="17633"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="75"/>
+    <n v="58"/>
+    <n v="18747"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="149"/>
+    <n v="98"/>
+    <n v="16788"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="159"/>
+    <n v="91"/>
+    <n v="19057"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="126"/>
+    <n v="94"/>
+    <n v="14183"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="47"/>
+    <n v="7951"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="67"/>
+    <n v="13231"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="128"/>
+    <n v="82"/>
+    <n v="16437"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="78"/>
+    <n v="60"/>
+    <n v="5253"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="90"/>
+    <n v="68"/>
+    <n v="15927"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="118"/>
+    <n v="78"/>
+    <n v="12954"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="132"/>
+    <n v="75"/>
+    <n v="9682"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="105"/>
+    <n v="84"/>
+    <n v="8114"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="44"/>
+    <n v="4864"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="31"/>
+    <n v="15963"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="67"/>
+    <n v="36"/>
+    <n v="14626"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="138"/>
+    <n v="72"/>
+    <n v="14528"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="102"/>
+    <n v="52"/>
+    <n v="22086"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="59"/>
+    <n v="5059"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="190"/>
+    <n v="100"/>
+    <n v="10293"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="70"/>
+    <n v="48"/>
+    <n v="9564"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="44"/>
+    <n v="4938"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="35"/>
+    <n v="17460"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="149"/>
+    <n v="93"/>
+    <n v="14684"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="141"/>
+    <n v="78"/>
+    <n v="6100"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="82"/>
+    <n v="43"/>
+    <n v="21753"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="46"/>
+    <n v="23"/>
+    <n v="19840"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="97"/>
+    <n v="88"/>
+    <n v="18180"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="121"/>
+    <n v="90"/>
+    <n v="18174"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="42"/>
+    <n v="9400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="115"/>
+    <n v="63"/>
+    <n v="18081"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="78"/>
+    <n v="43"/>
+    <n v="13175"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="137"/>
+    <n v="70"/>
+    <n v="19349"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="135"/>
+    <n v="98"/>
+    <n v="17241"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="76"/>
+    <n v="43"/>
+    <n v="12436"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="64"/>
+    <n v="43"/>
+    <n v="8244"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="55"/>
+    <n v="42"/>
+    <n v="13249"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="26"/>
+    <n v="7431"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="35"/>
+    <n v="8206"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="91"/>
+    <n v="66"/>
+    <n v="12578"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="63"/>
+    <n v="32"/>
+    <n v="16618"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="53"/>
+    <n v="29"/>
+    <n v="20903"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="190"/>
+    <n v="98"/>
+    <n v="14852"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="59"/>
+    <n v="35"/>
+    <n v="19738"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="113"/>
+    <n v="78"/>
+    <n v="8290"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="34"/>
+    <n v="6096"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="127"/>
+    <n v="69"/>
+    <n v="8831"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="126"/>
+    <n v="63"/>
+    <n v="15633"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="138"/>
+    <n v="95"/>
+    <n v="7983"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="68"/>
+    <n v="56"/>
+    <n v="12595"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="48"/>
+    <n v="42"/>
+    <n v="13423"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="145"/>
+    <n v="89"/>
+    <n v="8993"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="73"/>
+    <n v="46"/>
+    <n v="14124"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="21"/>
+    <n v="7009"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="84"/>
+    <n v="56"/>
+    <n v="5787"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="73"/>
+    <n v="65"/>
+    <n v="11999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="95"/>
+    <n v="91"/>
+    <n v="8288"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="73"/>
+    <n v="53"/>
+    <n v="19476"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="50"/>
+    <n v="40"/>
+    <n v="6704"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="144"/>
+    <n v="94"/>
+    <n v="14045"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="114"/>
+    <n v="71"/>
+    <n v="22274"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="28"/>
+    <n v="7957"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="33"/>
+    <n v="9103"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="74"/>
+    <n v="63"/>
+    <n v="14429"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="153"/>
+    <n v="92"/>
+    <n v="17913"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="121"/>
+    <n v="67"/>
+    <n v="18196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="54"/>
+    <n v="27"/>
+    <n v="6384"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="102"/>
+    <n v="74"/>
+    <n v="12763"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="58"/>
+    <n v="48"/>
+    <n v="5283"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="33"/>
+    <n v="8193"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="44"/>
+    <n v="21413"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="46"/>
+    <n v="15912"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="65"/>
+    <n v="63"/>
+    <n v="17982"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="116"/>
+    <n v="66"/>
+    <n v="16415"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="74"/>
+    <n v="47"/>
+    <n v="19679"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="76"/>
+    <n v="72"/>
+    <n v="19236"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="52"/>
+    <n v="36"/>
+    <n v="7050"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="25"/>
+    <n v="7318"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="54"/>
+    <n v="33"/>
+    <n v="10549"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="140"/>
+    <n v="87"/>
+    <n v="9208"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="39"/>
+    <n v="10253"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="117"/>
+    <n v="78"/>
+    <n v="10748"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="102"/>
+    <n v="77"/>
+    <n v="15500"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="88"/>
+    <n v="58"/>
+    <n v="9540"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="83"/>
+    <n v="66"/>
+    <n v="5501"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="31"/>
+    <n v="9751"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="74"/>
+    <n v="12021"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="130"/>
+    <n v="90"/>
+    <n v="19380"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="58"/>
+    <n v="30"/>
+    <n v="11396"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="49"/>
+    <n v="25"/>
+    <n v="9034"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="139"/>
+    <n v="91"/>
+    <n v="20533"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="87"/>
+    <n v="46"/>
+    <n v="16885"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="92"/>
+    <n v="58"/>
+    <n v="20953"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="45"/>
+    <n v="4147"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="53"/>
+    <n v="17016"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="61"/>
+    <n v="60"/>
+    <n v="5514"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="38"/>
+    <n v="35"/>
+    <n v="19416"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="64"/>
+    <n v="41"/>
+    <n v="10959"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="78"/>
+    <n v="69"/>
+    <n v="17631"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="79"/>
+    <n v="67"/>
+    <n v="12213"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="101"/>
+    <n v="68"/>
+    <n v="19882"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="40"/>
+    <n v="6871"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="54"/>
+    <n v="13900"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="110"/>
+    <n v="92"/>
+    <n v="18385"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="93"/>
+    <n v="55"/>
+    <n v="19890"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="84"/>
+    <n v="78"/>
+    <n v="6990"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="169"/>
+    <n v="96"/>
+    <n v="15367"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="187"/>
+    <n v="95"/>
+    <n v="21093"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="82"/>
+    <n v="82"/>
+    <n v="22465"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E059F0B5-81F5-4FAF-947F-A3B20FCA858A}" name="TDVendas" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:D42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="38">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Valor Vendido" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="24">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TBVendas" displayName="TBVendas" ref="A1:F273">
-  <autoFilter ref="A1:F273"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBVendas" displayName="TBVendas" ref="A1:F273">
+  <autoFilter ref="A1:F273" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Ano" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Vendedor"/>
-    <tableColumn id="7" name="Clientes visitados" dataDxfId="4" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" name="Negócios Fechados" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ano" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vendedor"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Clientes visitados" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Negócios Fechados" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,21 +6129,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC72FA8-3908-487B-B08C-B67DE936A227}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -583,7 +6180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -603,7 +6200,7 @@
         <v>7625</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -623,7 +6220,7 @@
         <v>16020</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -643,7 +6240,7 @@
         <v>9859</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -663,7 +6260,7 @@
         <v>10155</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -683,7 +6280,7 @@
         <v>21591</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -703,7 +6300,7 @@
         <v>11574</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -723,7 +6320,7 @@
         <v>11242</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -743,7 +6340,7 @@
         <v>12943</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -763,7 +6360,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -783,7 +6380,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -803,7 +6400,7 @@
         <v>22011</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -823,7 +6420,7 @@
         <v>12652</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -843,7 +6440,7 @@
         <v>21216</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -863,7 +6460,7 @@
         <v>11934</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -883,7 +6480,7 @@
         <v>16645</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -903,7 +6500,7 @@
         <v>15306</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -923,7 +6520,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -943,7 +6540,7 @@
         <v>15883</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -963,7 +6560,7 @@
         <v>10246</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -983,7 +6580,7 @@
         <v>21099</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -1003,7 +6600,7 @@
         <v>14038</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -1023,7 +6620,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -1043,7 +6640,7 @@
         <v>14057</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -1063,7 +6660,7 @@
         <v>17044</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -1083,7 +6680,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -1103,7 +6700,7 @@
         <v>6436</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -1123,7 +6720,7 @@
         <v>8064</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>4</v>
       </c>
@@ -1143,7 +6740,7 @@
         <v>14398</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -1163,7 +6760,7 @@
         <v>10816</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>4</v>
       </c>
@@ -1183,7 +6780,7 @@
         <v>18868</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -1203,7 +6800,7 @@
         <v>14416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -1223,7 +6820,7 @@
         <v>12347</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -1243,7 +6840,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -1263,7 +6860,7 @@
         <v>21220</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -1283,7 +6880,7 @@
         <v>20414</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -1303,7 +6900,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -1323,7 +6920,7 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -1343,7 +6940,7 @@
         <v>22198</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -1363,7 +6960,7 @@
         <v>20710</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -1383,7 +6980,7 @@
         <v>7682</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>6</v>
       </c>
@@ -1403,7 +7000,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>6</v>
       </c>
@@ -1423,7 +7020,7 @@
         <v>21707</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>6</v>
       </c>
@@ -1443,7 +7040,7 @@
         <v>8922</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>6</v>
       </c>
@@ -1463,7 +7060,7 @@
         <v>13535</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>6</v>
       </c>
@@ -1483,7 +7080,7 @@
         <v>12927</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>6</v>
       </c>
@@ -1503,7 +7100,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>6</v>
       </c>
@@ -1523,7 +7120,7 @@
         <v>13361</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>6</v>
       </c>
@@ -1543,7 +7140,7 @@
         <v>16429</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>7</v>
       </c>
@@ -1563,7 +7160,7 @@
         <v>7996</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>7</v>
       </c>
@@ -1583,7 +7180,7 @@
         <v>9788</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>7</v>
       </c>
@@ -1603,7 +7200,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>7</v>
       </c>
@@ -1623,7 +7220,7 @@
         <v>17126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>7</v>
       </c>
@@ -1643,7 +7240,7 @@
         <v>15731</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>7</v>
       </c>
@@ -1663,7 +7260,7 @@
         <v>11359</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>7</v>
       </c>
@@ -1683,7 +7280,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>7</v>
       </c>
@@ -1703,7 +7300,7 @@
         <v>5218</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -1723,7 +7320,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -1743,7 +7340,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>8</v>
       </c>
@@ -1763,7 +7360,7 @@
         <v>18208</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>8</v>
       </c>
@@ -1783,7 +7380,7 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>8</v>
       </c>
@@ -1803,7 +7400,7 @@
         <v>21601</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>8</v>
       </c>
@@ -1823,7 +7420,7 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>8</v>
       </c>
@@ -1843,7 +7440,7 @@
         <v>18688</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>8</v>
       </c>
@@ -1863,7 +7460,7 @@
         <v>20899</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>9</v>
       </c>
@@ -1883,7 +7480,7 @@
         <v>5546</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>9</v>
       </c>
@@ -1903,7 +7500,7 @@
         <v>15541</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>9</v>
       </c>
@@ -1923,7 +7520,7 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>9</v>
       </c>
@@ -1943,7 +7540,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>9</v>
       </c>
@@ -1963,7 +7560,7 @@
         <v>19284</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>9</v>
       </c>
@@ -1983,7 +7580,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>9</v>
       </c>
@@ -2003,7 +7600,7 @@
         <v>11181</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>9</v>
       </c>
@@ -2023,7 +7620,7 @@
         <v>13333</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>10</v>
       </c>
@@ -2043,7 +7640,7 @@
         <v>9690</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>10</v>
       </c>
@@ -2063,7 +7660,7 @@
         <v>11731</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>10</v>
       </c>
@@ -2083,7 +7680,7 @@
         <v>13479</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>10</v>
       </c>
@@ -2103,7 +7700,7 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>10</v>
       </c>
@@ -2123,7 +7720,7 @@
         <v>11709</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>10</v>
       </c>
@@ -2143,7 +7740,7 @@
         <v>11224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>10</v>
       </c>
@@ -2163,7 +7760,7 @@
         <v>19279</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>10</v>
       </c>
@@ -2183,7 +7780,7 @@
         <v>12648</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>11</v>
       </c>
@@ -2203,7 +7800,7 @@
         <v>9928</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -2223,7 +7820,7 @@
         <v>19349</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>11</v>
       </c>
@@ -2243,7 +7840,7 @@
         <v>18923</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>11</v>
       </c>
@@ -2263,7 +7860,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>11</v>
       </c>
@@ -2283,7 +7880,7 @@
         <v>10557</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>11</v>
       </c>
@@ -2303,7 +7900,7 @@
         <v>14870</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>11</v>
       </c>
@@ -2323,7 +7920,7 @@
         <v>17427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>11</v>
       </c>
@@ -2343,7 +7940,7 @@
         <v>11507</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>12</v>
       </c>
@@ -2363,7 +7960,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>12</v>
       </c>
@@ -2383,7 +7980,7 @@
         <v>20795</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>12</v>
       </c>
@@ -2403,7 +8000,7 @@
         <v>12451</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>12</v>
       </c>
@@ -2423,7 +8020,7 @@
         <v>7217</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>12</v>
       </c>
@@ -2443,7 +8040,7 @@
         <v>12383</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>12</v>
       </c>
@@ -2463,7 +8060,7 @@
         <v>17560</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>12</v>
       </c>
@@ -2483,7 +8080,7 @@
         <v>14937</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>12</v>
       </c>
@@ -2503,7 +8100,7 @@
         <v>20988</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -2523,7 +8120,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>1</v>
       </c>
@@ -2543,7 +8140,7 @@
         <v>18787</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -2563,7 +8160,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>1</v>
       </c>
@@ -2583,7 +8180,7 @@
         <v>15608</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>1</v>
       </c>
@@ -2603,7 +8200,7 @@
         <v>16423</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -2623,7 +8220,7 @@
         <v>13084</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>1</v>
       </c>
@@ -2643,7 +8240,7 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>1</v>
       </c>
@@ -2663,7 +8260,7 @@
         <v>20751</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>2</v>
       </c>
@@ -2683,7 +8280,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>2</v>
       </c>
@@ -2703,7 +8300,7 @@
         <v>8269</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>2</v>
       </c>
@@ -2723,7 +8320,7 @@
         <v>11422</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>2</v>
       </c>
@@ -2743,7 +8340,7 @@
         <v>11150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>2</v>
       </c>
@@ -2763,7 +8360,7 @@
         <v>7287</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>2</v>
       </c>
@@ -2783,7 +8380,7 @@
         <v>16370</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>2</v>
       </c>
@@ -2803,7 +8400,7 @@
         <v>21831</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>2</v>
       </c>
@@ -2823,7 +8420,7 @@
         <v>8496</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>3</v>
       </c>
@@ -2843,7 +8440,7 @@
         <v>6537</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>3</v>
       </c>
@@ -2863,7 +8460,7 @@
         <v>10107</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>3</v>
       </c>
@@ -2883,7 +8480,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>3</v>
       </c>
@@ -2903,7 +8500,7 @@
         <v>10740</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>3</v>
       </c>
@@ -2923,7 +8520,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>3</v>
       </c>
@@ -2943,7 +8540,7 @@
         <v>9597</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>3</v>
       </c>
@@ -2963,7 +8560,7 @@
         <v>17349</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>3</v>
       </c>
@@ -2983,7 +8580,7 @@
         <v>11553</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>4</v>
       </c>
@@ -3003,7 +8600,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>4</v>
       </c>
@@ -3023,7 +8620,7 @@
         <v>8624</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>4</v>
       </c>
@@ -3043,7 +8640,7 @@
         <v>13490</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>4</v>
       </c>
@@ -3063,7 +8660,7 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>4</v>
       </c>
@@ -3083,7 +8680,7 @@
         <v>18942</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>4</v>
       </c>
@@ -3103,7 +8700,7 @@
         <v>6528</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>4</v>
       </c>
@@ -3123,7 +8720,7 @@
         <v>17364</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>4</v>
       </c>
@@ -3143,7 +8740,7 @@
         <v>21582</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>5</v>
       </c>
@@ -3163,7 +8760,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>5</v>
       </c>
@@ -3183,7 +8780,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -3203,7 +8800,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>5</v>
       </c>
@@ -3223,7 +8820,7 @@
         <v>13610</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>5</v>
       </c>
@@ -3243,7 +8840,7 @@
         <v>21628</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>5</v>
       </c>
@@ -3263,7 +8860,7 @@
         <v>17826</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>5</v>
       </c>
@@ -3283,7 +8880,7 @@
         <v>19424</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>5</v>
       </c>
@@ -3303,7 +8900,7 @@
         <v>16101</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>6</v>
       </c>
@@ -3323,7 +8920,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>6</v>
       </c>
@@ -3343,7 +8940,7 @@
         <v>17984</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>6</v>
       </c>
@@ -3363,7 +8960,7 @@
         <v>13295</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>6</v>
       </c>
@@ -3383,7 +8980,7 @@
         <v>20474</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>6</v>
       </c>
@@ -3403,7 +9000,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>6</v>
       </c>
@@ -3423,7 +9020,7 @@
         <v>20358</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>6</v>
       </c>
@@ -3443,7 +9040,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>6</v>
       </c>
@@ -3463,7 +9060,7 @@
         <v>11976</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>7</v>
       </c>
@@ -3483,7 +9080,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>7</v>
       </c>
@@ -3503,7 +9100,7 @@
         <v>22235</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>7</v>
       </c>
@@ -3523,7 +9120,7 @@
         <v>15149</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -3543,7 +9140,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>7</v>
       </c>
@@ -3563,7 +9160,7 @@
         <v>8860</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -3583,7 +9180,7 @@
         <v>13734</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>7</v>
       </c>
@@ -3603,7 +9200,7 @@
         <v>14394</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>7</v>
       </c>
@@ -3623,7 +9220,7 @@
         <v>14618</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>8</v>
       </c>
@@ -3643,7 +9240,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>8</v>
       </c>
@@ -3663,7 +9260,7 @@
         <v>22411</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -3683,7 +9280,7 @@
         <v>21611</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>8</v>
       </c>
@@ -3703,7 +9300,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>8</v>
       </c>
@@ -3723,7 +9320,7 @@
         <v>13335</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>8</v>
       </c>
@@ -3743,7 +9340,7 @@
         <v>18317</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>8</v>
       </c>
@@ -3763,7 +9360,7 @@
         <v>7634</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>8</v>
       </c>
@@ -3783,7 +9380,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>9</v>
       </c>
@@ -3803,7 +9400,7 @@
         <v>6926</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>9</v>
       </c>
@@ -3823,7 +9420,7 @@
         <v>15017</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>9</v>
       </c>
@@ -3843,7 +9440,7 @@
         <v>18170</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>9</v>
       </c>
@@ -3863,7 +9460,7 @@
         <v>17633</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>9</v>
       </c>
@@ -3883,7 +9480,7 @@
         <v>18747</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>9</v>
       </c>
@@ -3903,7 +9500,7 @@
         <v>16788</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>9</v>
       </c>
@@ -3923,7 +9520,7 @@
         <v>19057</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>9</v>
       </c>
@@ -3943,7 +9540,7 @@
         <v>14183</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>10</v>
       </c>
@@ -3963,7 +9560,7 @@
         <v>7951</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>10</v>
       </c>
@@ -3983,7 +9580,7 @@
         <v>13231</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>10</v>
       </c>
@@ -4003,7 +9600,7 @@
         <v>16437</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>10</v>
       </c>
@@ -4023,7 +9620,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>10</v>
       </c>
@@ -4043,7 +9640,7 @@
         <v>15927</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>10</v>
       </c>
@@ -4063,7 +9660,7 @@
         <v>12954</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>10</v>
       </c>
@@ -4083,7 +9680,7 @@
         <v>9682</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>10</v>
       </c>
@@ -4103,7 +9700,7 @@
         <v>8114</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>11</v>
       </c>
@@ -4123,7 +9720,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>11</v>
       </c>
@@ -4143,7 +9740,7 @@
         <v>15963</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>11</v>
       </c>
@@ -4163,7 +9760,7 @@
         <v>14626</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>11</v>
       </c>
@@ -4183,7 +9780,7 @@
         <v>14528</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>11</v>
       </c>
@@ -4203,7 +9800,7 @@
         <v>22086</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>11</v>
       </c>
@@ -4223,7 +9820,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>11</v>
       </c>
@@ -4243,7 +9840,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>11</v>
       </c>
@@ -4263,7 +9860,7 @@
         <v>9564</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>12</v>
       </c>
@@ -4283,7 +9880,7 @@
         <v>4938</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>12</v>
       </c>
@@ -4303,7 +9900,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>12</v>
       </c>
@@ -4323,7 +9920,7 @@
         <v>14684</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>12</v>
       </c>
@@ -4343,7 +9940,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>12</v>
       </c>
@@ -4363,7 +9960,7 @@
         <v>21753</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>12</v>
       </c>
@@ -4383,7 +9980,7 @@
         <v>19840</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>12</v>
       </c>
@@ -4403,7 +10000,7 @@
         <v>18180</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>12</v>
       </c>
@@ -4423,7 +10020,7 @@
         <v>18174</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>1</v>
       </c>
@@ -4443,7 +10040,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>1</v>
       </c>
@@ -4463,7 +10060,7 @@
         <v>18081</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>1</v>
       </c>
@@ -4483,7 +10080,7 @@
         <v>13175</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>1</v>
       </c>
@@ -4503,7 +10100,7 @@
         <v>19349</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>1</v>
       </c>
@@ -4523,7 +10120,7 @@
         <v>17241</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>1</v>
       </c>
@@ -4543,7 +10140,7 @@
         <v>12436</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>1</v>
       </c>
@@ -4563,7 +10160,7 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>1</v>
       </c>
@@ -4583,7 +10180,7 @@
         <v>13249</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>2</v>
       </c>
@@ -4603,7 +10200,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>2</v>
       </c>
@@ -4623,7 +10220,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>2</v>
       </c>
@@ -4643,7 +10240,7 @@
         <v>12578</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>2</v>
       </c>
@@ -4663,7 +10260,7 @@
         <v>16618</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -4683,7 +10280,7 @@
         <v>20903</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>2</v>
       </c>
@@ -4703,7 +10300,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>2</v>
       </c>
@@ -4723,7 +10320,7 @@
         <v>19738</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>2</v>
       </c>
@@ -4743,7 +10340,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>3</v>
       </c>
@@ -4763,7 +10360,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>3</v>
       </c>
@@ -4783,7 +10380,7 @@
         <v>8831</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>3</v>
       </c>
@@ -4803,7 +10400,7 @@
         <v>15633</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>3</v>
       </c>
@@ -4823,7 +10420,7 @@
         <v>7983</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>3</v>
       </c>
@@ -4843,7 +10440,7 @@
         <v>12595</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>3</v>
       </c>
@@ -4863,7 +10460,7 @@
         <v>13423</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>3</v>
       </c>
@@ -4883,7 +10480,7 @@
         <v>8993</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>3</v>
       </c>
@@ -4903,7 +10500,7 @@
         <v>14124</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -4923,7 +10520,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>4</v>
       </c>
@@ -4943,7 +10540,7 @@
         <v>5787</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>4</v>
       </c>
@@ -4963,7 +10560,7 @@
         <v>11999</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>4</v>
       </c>
@@ -4983,7 +10580,7 @@
         <v>8288</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>4</v>
       </c>
@@ -5003,7 +10600,7 @@
         <v>19476</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>4</v>
       </c>
@@ -5023,7 +10620,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>4</v>
       </c>
@@ -5043,7 +10640,7 @@
         <v>14045</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>4</v>
       </c>
@@ -5063,7 +10660,7 @@
         <v>22274</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>5</v>
       </c>
@@ -5083,7 +10680,7 @@
         <v>7957</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>5</v>
       </c>
@@ -5103,7 +10700,7 @@
         <v>9103</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>5</v>
       </c>
@@ -5123,7 +10720,7 @@
         <v>14429</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>5</v>
       </c>
@@ -5143,7 +10740,7 @@
         <v>17913</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>5</v>
       </c>
@@ -5163,7 +10760,7 @@
         <v>18196</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>5</v>
       </c>
@@ -5183,7 +10780,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>5</v>
       </c>
@@ -5203,7 +10800,7 @@
         <v>12763</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>5</v>
       </c>
@@ -5223,7 +10820,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>6</v>
       </c>
@@ -5243,7 +10840,7 @@
         <v>8193</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>6</v>
       </c>
@@ -5263,7 +10860,7 @@
         <v>21413</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>6</v>
       </c>
@@ -5283,7 +10880,7 @@
         <v>15912</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>6</v>
       </c>
@@ -5303,7 +10900,7 @@
         <v>17982</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>6</v>
       </c>
@@ -5323,7 +10920,7 @@
         <v>16415</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>6</v>
       </c>
@@ -5343,7 +10940,7 @@
         <v>19679</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>6</v>
       </c>
@@ -5363,7 +10960,7 @@
         <v>19236</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>6</v>
       </c>
@@ -5383,7 +10980,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>7</v>
       </c>
@@ -5403,7 +11000,7 @@
         <v>7318</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>7</v>
       </c>
@@ -5423,7 +11020,7 @@
         <v>10549</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>7</v>
       </c>
@@ -5443,7 +11040,7 @@
         <v>9208</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>7</v>
       </c>
@@ -5463,7 +11060,7 @@
         <v>10253</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>7</v>
       </c>
@@ -5483,7 +11080,7 @@
         <v>10748</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>7</v>
       </c>
@@ -5503,7 +11100,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>7</v>
       </c>
@@ -5523,7 +11120,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>7</v>
       </c>
@@ -5543,7 +11140,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>8</v>
       </c>
@@ -5563,7 +11160,7 @@
         <v>9751</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>8</v>
       </c>
@@ -5583,7 +11180,7 @@
         <v>12021</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>8</v>
       </c>
@@ -5603,7 +11200,7 @@
         <v>19380</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>8</v>
       </c>
@@ -5623,7 +11220,7 @@
         <v>11396</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>8</v>
       </c>
@@ -5643,7 +11240,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>8</v>
       </c>
@@ -5663,7 +11260,7 @@
         <v>20533</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>8</v>
       </c>
@@ -5683,7 +11280,7 @@
         <v>16885</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>8</v>
       </c>
@@ -5703,7 +11300,7 @@
         <v>20953</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>9</v>
       </c>
@@ -5723,7 +11320,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>9</v>
       </c>
@@ -5743,7 +11340,7 @@
         <v>17016</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>9</v>
       </c>
@@ -5763,7 +11360,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>9</v>
       </c>
@@ -5783,7 +11380,7 @@
         <v>19416</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>9</v>
       </c>
@@ -5803,7 +11400,7 @@
         <v>10959</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>9</v>
       </c>
@@ -5823,7 +11420,7 @@
         <v>17631</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>9</v>
       </c>
@@ -5843,7 +11440,7 @@
         <v>12213</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>9</v>
       </c>
@@ -5863,7 +11460,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>10</v>
       </c>
@@ -5883,7 +11480,7 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>10</v>
       </c>
@@ -5903,7 +11500,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>10</v>
       </c>
@@ -5923,7 +11520,7 @@
         <v>18385</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>10</v>
       </c>
@@ -5943,7 +11540,7 @@
         <v>19890</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>10</v>
       </c>
@@ -5963,7 +11560,7 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>10</v>
       </c>
@@ -5983,7 +11580,7 @@
         <v>15367</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>10</v>
       </c>
@@ -6003,7 +11600,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>10</v>
       </c>
@@ -6029,4 +11626,585 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79628CED-9987-4F8E-AA08-C734E2D9B98C}">
+  <dimension ref="A3:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <v>176775</v>
+      </c>
+      <c r="C5" s="8">
+        <v>179155</v>
+      </c>
+      <c r="D5" s="8">
+        <v>355930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>16020</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21591</v>
+      </c>
+      <c r="D6" s="8">
+        <v>37611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12624</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21216</v>
+      </c>
+      <c r="D7" s="8">
+        <v>33840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15883</v>
+      </c>
+      <c r="C8" s="8">
+        <v>14038</v>
+      </c>
+      <c r="D8" s="8">
+        <v>29921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6436</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10816</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>21220</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7302</v>
+      </c>
+      <c r="D10" s="8">
+        <v>28522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>21707</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12927</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9788</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15731</v>
+      </c>
+      <c r="D12" s="8">
+        <v>25519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5681</v>
+      </c>
+      <c r="C13" s="8">
+        <v>21601</v>
+      </c>
+      <c r="D13" s="8">
+        <v>27282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>15541</v>
+      </c>
+      <c r="C14" s="8">
+        <v>19284</v>
+      </c>
+      <c r="D14" s="8">
+        <v>34825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>11731</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11709</v>
+      </c>
+      <c r="D15" s="8">
+        <v>23440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19349</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10557</v>
+      </c>
+      <c r="D16" s="8">
+        <v>29906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20795</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12383</v>
+      </c>
+      <c r="D17" s="8">
+        <v>33178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="8">
+        <v>175456</v>
+      </c>
+      <c r="C18" s="8">
+        <v>178216</v>
+      </c>
+      <c r="D18" s="8">
+        <v>353672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18787</v>
+      </c>
+      <c r="C19" s="8">
+        <v>16423</v>
+      </c>
+      <c r="D19" s="8">
+        <v>35210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8">
+        <v>8269</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7287</v>
+      </c>
+      <c r="D20" s="8">
+        <v>15556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10107</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6505</v>
+      </c>
+      <c r="D21" s="8">
+        <v>16612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8624</v>
+      </c>
+      <c r="C22" s="8">
+        <v>18942</v>
+      </c>
+      <c r="D22" s="8">
+        <v>27566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5368</v>
+      </c>
+      <c r="C23" s="8">
+        <v>21628</v>
+      </c>
+      <c r="D23" s="8">
+        <v>26996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17984</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6723</v>
+      </c>
+      <c r="D24" s="8">
+        <v>24707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>22235</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8860</v>
+      </c>
+      <c r="D25" s="8">
+        <v>31095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8">
+        <v>22411</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13335</v>
+      </c>
+      <c r="D26" s="8">
+        <v>35746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8">
+        <v>15017</v>
+      </c>
+      <c r="C27" s="8">
+        <v>18747</v>
+      </c>
+      <c r="D27" s="8">
+        <v>33764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8">
+        <v>13231</v>
+      </c>
+      <c r="C28" s="8">
+        <v>15927</v>
+      </c>
+      <c r="D28" s="8">
+        <v>29158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8">
+        <v>15963</v>
+      </c>
+      <c r="C29" s="8">
+        <v>22086</v>
+      </c>
+      <c r="D29" s="8">
+        <v>38049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8">
+        <v>17460</v>
+      </c>
+      <c r="C30" s="8">
+        <v>21753</v>
+      </c>
+      <c r="D30" s="8">
+        <v>39213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="8">
+        <v>124907</v>
+      </c>
+      <c r="C31" s="8">
+        <v>142557</v>
+      </c>
+      <c r="D31" s="8">
+        <v>267464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8">
+        <v>18081</v>
+      </c>
+      <c r="C32" s="8">
+        <v>17241</v>
+      </c>
+      <c r="D32" s="8">
+        <v>35322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8206</v>
+      </c>
+      <c r="C33" s="8">
+        <v>20903</v>
+      </c>
+      <c r="D33" s="8">
+        <v>29109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>3</v>
+      </c>
+      <c r="B34" s="8">
+        <v>8831</v>
+      </c>
+      <c r="C34" s="8">
+        <v>12595</v>
+      </c>
+      <c r="D34" s="8">
+        <v>21426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5787</v>
+      </c>
+      <c r="C35" s="8">
+        <v>19476</v>
+      </c>
+      <c r="D35" s="8">
+        <v>25263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9103</v>
+      </c>
+      <c r="C36" s="8">
+        <v>18196</v>
+      </c>
+      <c r="D36" s="8">
+        <v>27299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>6</v>
+      </c>
+      <c r="B37" s="8">
+        <v>21413</v>
+      </c>
+      <c r="C37" s="8">
+        <v>16415</v>
+      </c>
+      <c r="D37" s="8">
+        <v>37828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8">
+        <v>10549</v>
+      </c>
+      <c r="C38" s="8">
+        <v>10748</v>
+      </c>
+      <c r="D38" s="8">
+        <v>21297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>8</v>
+      </c>
+      <c r="B39" s="8">
+        <v>12021</v>
+      </c>
+      <c r="C39" s="8">
+        <v>9034</v>
+      </c>
+      <c r="D39" s="8">
+        <v>21055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>9</v>
+      </c>
+      <c r="B40" s="8">
+        <v>17016</v>
+      </c>
+      <c r="C40" s="8">
+        <v>10959</v>
+      </c>
+      <c r="D40" s="8">
+        <v>27975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8">
+        <v>13900</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6990</v>
+      </c>
+      <c r="D41" s="8">
+        <v>20890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8">
+        <v>477138</v>
+      </c>
+      <c r="C42" s="8">
+        <v>499928</v>
+      </c>
+      <c r="D42" s="8">
+        <v>977066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>